--- a/roadtrip/mapPlan.xlsx
+++ b/roadtrip/mapPlan.xlsx
@@ -247,6 +247,1768 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Speed</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> chart (mi/h)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$I$5:$I$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0909090909090908</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.21090909090909091</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.6727272727272728</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.2545454545454544</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.0909090909090908</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.4545454545454546</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.4363636363636365</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.6363636363636367</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$5:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4185</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4475</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-3F67-4855-A8F7-088BC33934BE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$I$5:$I$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0909090909090908</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.21090909090909091</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.6727272727272728</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.2545454545454544</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.0909090909090908</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.4545454545454546</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.4363636363636365</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.6363636363636367</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$5:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4185</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4475</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3F67-4855-A8F7-088BC33934BE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="313324848"/>
+        <c:axId val="313321896"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="313324848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Times</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (hrs)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="313321896"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="313321896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Distance</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (mi)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="313324848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln w="25400">
+      <a:solidFill>
+        <a:schemeClr val="accent1"/>
+      </a:solidFill>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Speed</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> chart (km/h)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$I$5:$I$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0909090909090908</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.21090909090909091</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.6727272727272728</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.2545454545454544</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.0909090909090908</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.4545454545454546</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.4363636363636365</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.6363636363636367</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$5:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6737.85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>362.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.676000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>590.87</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>425.04</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>288.19</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>450.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>217.35000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>392.84000000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>587.65000000000009</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7204.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-92C3-47E1-968B-109F3D8A8657}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:upDownBars>
+          <c:gapWidth val="219"/>
+          <c:upBars>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="15000"/>
+                    <a:lumOff val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:upBars>
+          <c:downBars>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:downBars>
+        </c:upDownBars>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="396317224"/>
+        <c:axId val="396317552"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="396317224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (hrs)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="396317552"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="396317552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Distance</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (km)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="396317224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="accent1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1257300</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA1C5A1D-FF5E-41A8-930A-FBF7E49BFBC9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>14286</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E42A3E7D-C21A-46F6-A8A2-0E8774F6DD32}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -514,10 +2276,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1104,5 +2866,6 @@
     <hyperlink ref="A2" r:id="rId1" xr:uid="{6285BDF8-302C-4FB4-BBEC-1574F82E0A85}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>